--- a/biology/Médecine/Hôpital_de_la_Charité_(Saint-Étienne)/Hôpital_de_la_Charité_(Saint-Étienne).xlsx
+++ b/biology/Médecine/Hôpital_de_la_Charité_(Saint-Étienne)/Hôpital_de_la_Charité_(Saint-Étienne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%B4pital_de_la_Charit%C3%A9_(Saint-%C3%89tienne)</t>
+          <t>Hôpital_de_la_Charité_(Saint-Étienne)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'hôpital de la Charité de Saint-Étienne est un hôpital de Saint-Étienne dans le département de la Loire. Le bâtiment administratif est partiellement inscrit (pour ses façades et toitures, montée d'escalier, palier du premier étage et salle d'honneur) au titre des monuments historiques par arrêté du 2 décembre 2002[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'hôpital de la Charité de Saint-Étienne est un hôpital de Saint-Étienne dans le département de la Loire. Le bâtiment administratif est partiellement inscrit (pour ses façades et toitures, montée d'escalier, palier du premier étage et salle d'honneur) au titre des monuments historiques par arrêté du 2 décembre 2002.
 </t>
         </is>
       </c>
